--- a/Relartório Analytics/Analise de Temperatura.xlsx
+++ b/Relartório Analytics/Analise de Temperatura.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sérgio\Desktop\Bandtec\Proejto Sprint 2\Grupo8-TermoLabs\Relartório Analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ítalo de Souza\Desktop\Sprint2-TermoLabs\Grupo8-TermoLabs\Relartório Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3083C05-8B2E-4A91-9F4F-F2DA5B0F1392}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50E1753-5343-4D91-854A-9F4681D647B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B762D4C-6239-4A1F-8ACA-E53B041B8884}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +110,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +141,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,14 +231,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1587,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D52C27-57CD-49D8-A3A4-9003EDD8729A}">
   <dimension ref="D3:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,6 +1642,9 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="J6" s="5"/>
+    </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
         <v>2</v>
@@ -1650,11 +1678,11 @@
       <c r="E10" s="4">
         <v>4</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="19">
         <f>MIN(E10:E39)</f>
         <v>2</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="20">
         <f>_xlfn.QUARTILE.EXC(E10:E39,1)</f>
         <v>3.75</v>
       </c>
@@ -1700,6 +1728,7 @@
       <c r="E13" s="4">
         <v>6</v>
       </c>
+      <c r="H13" s="22"/>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="4:14" x14ac:dyDescent="0.25">
@@ -1725,10 +1754,10 @@
       <c r="J15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="15"/>
+      <c r="L15" s="17"/>
       <c r="M15" s="13" t="s">
         <v>11</v>
       </c>
@@ -1743,23 +1772,23 @@
       <c r="E16" s="4">
         <v>4</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="19">
         <v>2.5</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="21">
         <v>3</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="15">
         <v>4.5</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="15">
         <v>5</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="14">
         <v>6</v>
       </c>
       <c r="N16" s="8">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
@@ -1769,12 +1798,13 @@
       <c r="E17" s="4">
         <v>3</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="4">
@@ -1783,6 +1813,13 @@
       <c r="E18" s="4">
         <v>5</v>
       </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="4">

--- a/Relartório Analytics/Analise de Temperatura.xlsx
+++ b/Relartório Analytics/Analise de Temperatura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ítalo de Souza\Desktop\Sprint2-TermoLabs\Grupo8-TermoLabs\Relartório Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50E1753-5343-4D91-854A-9F4681D647B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECCE174-AE10-4C46-8076-AA5126D1FF8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B762D4C-6239-4A1F-8ACA-E53B041B8884}"/>
   </bookViews>
@@ -233,17 +233,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1610,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D52C27-57CD-49D8-A3A4-9003EDD8729A}">
-  <dimension ref="D3:N39"/>
+  <dimension ref="D3:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,7 +1626,7 @@
     <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D4" s="1">
         <v>2</v>
       </c>
@@ -1642,10 +1642,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:16" x14ac:dyDescent="0.25">
       <c r="J6" s="5"/>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
         <v>2</v>
       </c>
@@ -1671,18 +1671,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D10" s="4">
         <v>1</v>
       </c>
       <c r="E10" s="4">
         <v>4</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="17">
         <f>MIN(E10:E39)</f>
         <v>2</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="18">
         <f>_xlfn.QUARTILE.EXC(E10:E39,1)</f>
         <v>3.75</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D11" s="4">
         <v>2</v>
       </c>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D12" s="4">
         <v>3</v>
       </c>
@@ -1721,17 +1721,17 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D13" s="4">
         <v>4</v>
       </c>
       <c r="E13" s="4">
         <v>6</v>
       </c>
-      <c r="H13" s="22"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D14" s="4">
         <v>5</v>
       </c>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D15" s="4">
         <v>6</v>
       </c>
@@ -1754,10 +1754,10 @@
       <c r="J15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="17"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="13" t="s">
         <v>11</v>
       </c>
@@ -1765,17 +1765,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D16" s="4">
         <v>7</v>
       </c>
       <c r="E16" s="4">
         <v>4</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="17">
         <v>2.5</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="19">
         <v>3</v>
       </c>
       <c r="K16" s="15">
@@ -1788,8 +1788,9 @@
         <v>6</v>
       </c>
       <c r="N16" s="8">
-        <v>7.5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="P16" s="20"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="4">
@@ -1798,13 +1799,13 @@
       <c r="E17" s="4">
         <v>3</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="4">
@@ -1813,13 +1814,13 @@
       <c r="E18" s="4">
         <v>5</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="4">
